--- a/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-birthsex-extension.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-birthsex-extension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Indicates the birth sex of the patient</t>
+    <t>Indicates the Birth sex of the patient, this extension will be deprecated in the future in-lieu of uds-plus-sex-extension</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -253,10 +253,10 @@
 </t>
   </si>
   <si>
-    <t>Indicates the birth sex of the Patient.</t>
-  </si>
-  <si>
-    <t>Indicates the birth sex of the Patient</t>
+    <t>Indicates the Birth sex of the Patient.</t>
+  </si>
+  <si>
+    <t>Indicates the Birth sex of the Patient</t>
   </si>
   <si>
     <t>0</t>
@@ -357,13 +357,13 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
+    <t>extensible</t>
   </si>
   <si>
     <t>The set of codes to be used for UDS+ reporting.</t>
   </si>
   <si>
-    <t>http://fhir.org/guides/hrsa/uds-plus/ValueSet/uds-plus-birthsex-codes</t>
+    <t>http://fhir.org/guides/hrsa/uds-plus/ValueSet/uds-plus-sex-codes</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -716,7 +716,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.5234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
